--- a/biology/Botanique/Francisco_Manuel_Blanco/Francisco_Manuel_Blanco.xlsx
+++ b/biology/Botanique/Francisco_Manuel_Blanco/Francisco_Manuel_Blanco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francisco Manuel (ou Manoel) Blanco est un religieux et botaniste espagnol, né en 1778 ou 1780 à Navianos et mort en 1845 à Manille.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Francisco Manuel Blanco fait partie de l’ordre de Saint-Augustin. Il est d’abord envoyé à Angat dans la province de Bulacan aux Philippines. Il exerce diverses fonctions et obtient, vers la fin de sa vie, la fonction de délégué de son ordre à Manille et voyage beaucoup à travers tout l’archipel. Il est l’auteur d’une flore des Philippines, Flora de Filipinas según el sistema de Linneo (Manille, 1837, réédité en 1845). Celestino Fernández-Villar (1838-1907) fera paraître, de 1877 à 1883, une mise à jour de cet ouvrage.
 </t>
@@ -542,7 +556,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Carl Ludwig Blume lui a dédié le genre Blancoa de la famille des Palmae.
 La revue de botanique Blancoana publiée par le département de botanique de l'Université de Jaén a été nommée en son nom.</t>
